--- a/sheets/products.xlsx
+++ b/sheets/products.xlsx
@@ -1,56 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagroltda-my.sharepoint.com/personal/joao_bastos_nagro_com_br/Documents/Área de Trabalho/VS Projects/lava_jato/sheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_143DE120C630921FD2FE31D2F817DB861D2B1CEF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC1B258-B604-4FE7-B882-4A4ADD81755A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>valor_venda</t>
+  </si>
   <si>
     <t>id_produto</t>
   </si>
   <si>
     <t>nome_produto</t>
   </si>
-  <si>
-    <t>valor_venda</t>
-  </si>
-  <si>
-    <t>Lavagem completa</t>
-  </si>
-  <si>
-    <t>Encerar</t>
-  </si>
-  <si>
-    <t>Apenas lavagem</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>cccc</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,25 +92,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +136,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -203,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -238,10 +204,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,20 +379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,61 +397,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
